--- a/Data_source/LCI_data/1_LCI_wave_electricity.xlsx
+++ b/Data_source/LCI_data/1_LCI_wave_electricity.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qiuya\Box\DAC LCA-IAM\YQ_work\Manuscript\Submission\Nature Communications Second Submission\Code and LCI Data\Data_source\LCI_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yqiu\Box\DAC LCA-IAM\YQ_work\Manuscript\Submission\Nature Communications Second Submission\Code and LCI Data\Data_source\LCI_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05BA869-D27D-4FDB-A30B-9FD65DB8F50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="lci_wave" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -695,7 +694,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1300,7 +1299,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 2" xfId="42"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -1616,16 +1615,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7F5BA4-D1C3-45A0-B8F4-4DF26CEAA146}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>111</v>
       </c>
@@ -1648,7 +1647,7 @@
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
     </row>
-    <row r="2" spans="1:19" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>113</v>
       </c>
@@ -1671,7 +1670,7 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>112</v>
       </c>
@@ -1694,7 +1693,7 @@
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>102</v>
       </c>
@@ -1717,7 +1716,7 @@
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>103</v>
       </c>
@@ -1740,7 +1739,7 @@
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>104</v>
       </c>
@@ -1763,7 +1762,7 @@
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>105</v>
       </c>
@@ -1786,7 +1785,7 @@
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>106</v>
       </c>
@@ -1809,7 +1808,7 @@
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>107</v>
       </c>
@@ -1832,7 +1831,7 @@
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>108</v>
       </c>
@@ -1855,7 +1854,7 @@
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>109</v>
       </c>
@@ -1878,7 +1877,7 @@
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1899,7 +1898,7 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1920,7 +1919,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>110</v>
       </c>
@@ -1950,23 +1949,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="9"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1974,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1982,7 +1981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1990,7 +1989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1998,7 +1997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2006,7 +2005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2014,7 +2013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2022,7 +2021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2030,7 +2029,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2038,7 +2037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2046,13 +2045,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -2087,7 +2086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>100</v>
       </c>
@@ -2119,7 +2118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>96</v>
       </c>
@@ -2149,7 +2148,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>40</v>
       </c>
@@ -2182,7 +2181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>41</v>
       </c>
@@ -2215,7 +2214,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>42</v>
       </c>
@@ -2248,7 +2247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>43</v>
       </c>
@@ -2281,7 +2280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>44</v>
       </c>
@@ -2314,7 +2313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>45</v>
       </c>
@@ -2347,7 +2346,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>46</v>
       </c>
@@ -2380,7 +2379,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>47</v>
       </c>
@@ -2413,7 +2412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>48</v>
       </c>
@@ -2446,7 +2445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>49</v>
       </c>
@@ -2479,7 +2478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>50</v>
       </c>
@@ -2512,7 +2511,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>51</v>
       </c>
@@ -2545,7 +2544,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>52</v>
       </c>
@@ -2578,7 +2577,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>53</v>
       </c>
@@ -2611,7 +2610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>54</v>
       </c>
@@ -2645,7 +2644,7 @@
       </c>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>55</v>
       </c>
@@ -2678,7 +2677,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>68</v>
       </c>
@@ -2711,7 +2710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>56</v>
       </c>
@@ -2744,7 +2743,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>57</v>
       </c>
@@ -2777,7 +2776,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>58</v>
       </c>
@@ -2810,7 +2809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>59</v>
       </c>
@@ -2843,7 +2842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>60</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>61</v>
       </c>
@@ -2910,7 +2909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>62</v>
       </c>
@@ -2944,7 +2943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>63</v>
       </c>
@@ -2978,7 +2977,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>62</v>
       </c>
@@ -3012,7 +3011,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>64</v>
       </c>
@@ -3046,7 +3045,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>64</v>
       </c>
@@ -3080,7 +3079,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>64</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>56</v>
       </c>
@@ -3148,7 +3147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>57</v>
       </c>
@@ -3182,7 +3181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>61</v>
       </c>
@@ -3216,7 +3215,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>65</v>
       </c>
@@ -3250,7 +3249,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>67</v>
       </c>
@@ -3284,7 +3283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>64</v>
       </c>
@@ -3318,7 +3317,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>56</v>
       </c>
@@ -3352,7 +3351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>57</v>
       </c>
@@ -3386,7 +3385,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>58</v>
       </c>
@@ -3420,7 +3419,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>59</v>
       </c>
@@ -3454,7 +3453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>60</v>
       </c>
@@ -3488,7 +3487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>61</v>
       </c>
@@ -3522,7 +3521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>62</v>
       </c>
@@ -3556,7 +3555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>63</v>
       </c>
@@ -3590,7 +3589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>62</v>
       </c>
@@ -3624,7 +3623,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>64</v>
       </c>
@@ -3658,7 +3657,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>64</v>
       </c>
@@ -3692,7 +3691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>64</v>
       </c>
@@ -3726,7 +3725,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>56</v>
       </c>
@@ -3760,7 +3759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>57</v>
       </c>
@@ -3794,7 +3793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>61</v>
       </c>
@@ -3828,7 +3827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>65</v>
       </c>
@@ -3862,7 +3861,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>66</v>
       </c>
@@ -3896,7 +3895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>64</v>
       </c>
@@ -3930,7 +3929,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>69</v>
       </c>
@@ -3964,7 +3963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>70</v>
       </c>
@@ -3998,7 +3997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>41</v>
       </c>
@@ -4032,7 +4031,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>71</v>
       </c>
@@ -4066,7 +4065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>38</v>
       </c>
@@ -4100,7 +4099,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>72</v>
       </c>
@@ -4134,7 +4133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>73</v>
       </c>
@@ -4168,7 +4167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>74</v>
       </c>
@@ -4202,7 +4201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>75</v>
       </c>
@@ -4236,7 +4235,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>76</v>
       </c>
@@ -4270,7 +4269,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>69</v>
       </c>
@@ -4304,7 +4303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>64</v>
       </c>
@@ -4338,7 +4337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>77</v>
       </c>
@@ -4372,7 +4371,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>39</v>
       </c>
@@ -4406,7 +4405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>78</v>
       </c>
@@ -4440,7 +4439,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>79</v>
       </c>
@@ -4474,7 +4473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>41</v>
       </c>
@@ -4508,7 +4507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>71</v>
       </c>
@@ -4542,7 +4541,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>78</v>
       </c>
@@ -4576,7 +4575,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>81</v>
       </c>
@@ -4610,7 +4609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>38</v>
       </c>
@@ -4644,7 +4643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>38</v>
       </c>
@@ -4678,7 +4677,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>44</v>
       </c>
@@ -4712,7 +4711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>80</v>
       </c>
@@ -4746,7 +4745,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>73</v>
       </c>
@@ -4780,7 +4779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>73</v>
       </c>
@@ -4814,7 +4813,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>47</v>
       </c>
@@ -4848,7 +4847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>82</v>
       </c>
@@ -4882,7 +4881,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>83</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>64</v>
       </c>
@@ -4950,7 +4949,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>64</v>
       </c>
@@ -4984,7 +4983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>77</v>
       </c>
@@ -5018,7 +5017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>72</v>
       </c>
@@ -5052,7 +5051,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>41</v>
       </c>
@@ -5086,7 +5085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>84</v>
       </c>
@@ -5120,7 +5119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>41</v>
       </c>
@@ -5154,7 +5153,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>85</v>
       </c>
@@ -5188,7 +5187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>78</v>
       </c>
@@ -5222,7 +5221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>86</v>
       </c>
@@ -5256,7 +5255,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>87</v>
       </c>
@@ -5290,7 +5289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>91</v>
       </c>
@@ -5324,7 +5323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>91</v>
       </c>
@@ -5358,7 +5357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>91</v>
       </c>
@@ -5392,7 +5391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>91</v>
       </c>
@@ -5426,7 +5425,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>92</v>
       </c>
@@ -5460,7 +5459,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>92</v>
       </c>
@@ -5494,7 +5493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>92</v>
       </c>
@@ -5528,7 +5527,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>92</v>
       </c>
@@ -5562,7 +5561,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>90</v>
       </c>
@@ -5596,7 +5595,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>90</v>
       </c>
@@ -5630,7 +5629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>88</v>
       </c>
@@ -5664,7 +5663,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>89</v>
       </c>
@@ -5698,7 +5697,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>90</v>
       </c>
@@ -5732,7 +5731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>90</v>
       </c>
@@ -5766,7 +5765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>90</v>
       </c>
@@ -5800,7 +5799,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>90</v>
       </c>
@@ -5834,7 +5833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>90</v>
       </c>
@@ -5868,7 +5867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>90</v>
       </c>
@@ -5902,7 +5901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>90</v>
       </c>
@@ -5936,7 +5935,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>90</v>
       </c>
@@ -5970,12 +5969,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B129" s="9">
-        <v>8.5000000000000006E-3</v>
+        <v>-8.5000000000000006E-3</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>34</v>
@@ -5994,7 +5993,7 @@
       </c>
       <c r="H129" s="8">
         <f t="shared" si="1"/>
-        <v>8.5000000000000006E-3</v>
+        <v>-8.5000000000000006E-3</v>
       </c>
       <c r="I129" s="7" t="s">
         <v>28</v>
@@ -6004,12 +6003,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B130" s="9">
-        <v>9.5E-4</v>
+        <v>-9.5E-4</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>34</v>
@@ -6028,7 +6027,7 @@
       </c>
       <c r="H130" s="8">
         <f t="shared" si="1"/>
-        <v>9.5E-4</v>
+        <v>-9.5E-4</v>
       </c>
       <c r="I130" s="7" t="s">
         <v>28</v>
@@ -6038,12 +6037,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>94</v>
       </c>
       <c r="B131" s="9">
-        <v>3.4000000000000001E-6</v>
+        <v>-3.4000000000000001E-6</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>34</v>
@@ -6062,7 +6061,7 @@
       </c>
       <c r="H131" s="8">
         <f t="shared" si="1"/>
-        <v>3.4000000000000001E-6</v>
+        <v>-3.4000000000000001E-6</v>
       </c>
       <c r="I131" s="7" t="s">
         <v>28</v>
@@ -6072,12 +6071,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B132" s="9">
-        <v>2.8000000000000002E-7</v>
+        <v>-2.8000000000000002E-7</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>34</v>
@@ -6096,7 +6095,7 @@
       </c>
       <c r="H132" s="8">
         <f t="shared" si="1"/>
-        <v>2.8000000000000002E-7</v>
+        <v>-2.8000000000000002E-7</v>
       </c>
       <c r="I132" s="7" t="s">
         <v>28</v>
@@ -6106,12 +6105,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B133" s="9">
-        <v>1.5E-5</v>
+        <v>-1.5E-5</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>34</v>
@@ -6130,7 +6129,7 @@
       </c>
       <c r="H133" s="8">
         <f t="shared" si="1"/>
-        <v>1.5E-5</v>
+        <v>-1.5E-5</v>
       </c>
       <c r="I133" s="7" t="s">
         <v>28</v>
